--- a/random_data1.xlsx
+++ b/random_data1.xlsx
@@ -91,7 +91,7 @@
     <t>UK</t>
   </si>
   <si>
-    <t>Class C</t>
+    <t>restricted</t>
   </si>
   <si>
     <t>Category C</t>
@@ -139,13 +139,16 @@
     <t>xlsx</t>
   </si>
   <si>
+    <t>external</t>
+  </si>
+  <si>
     <t>Type 1</t>
   </si>
   <si>
     <t>/path/to/file4</t>
   </si>
   <si>
-    <t>Product 4(1),Product 5</t>
+    <t>Product 4(1), Product 5</t>
   </si>
   <si>
     <t>Disease 6</t>
@@ -202,16 +205,13 @@
     <t>doc</t>
   </si>
   <si>
-    <t>Class B</t>
-  </si>
-  <si>
     <t>Category A</t>
   </si>
   <si>
     <t>/path/to/file1</t>
   </si>
   <si>
-    <t>Product 1,Product 2(10)</t>
+    <t>Product 1,Product 2(10), Product 3</t>
   </si>
   <si>
     <t>Pest 7</t>
@@ -671,7 +671,7 @@
     <col min="21" max="21" style="7" width="10.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,46 +821,46 @@
         <v>24</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="6">
         <v>448</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>38</v>
@@ -868,13 +868,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="5">
         <v>25569.2296875</v>
@@ -883,40 +883,40 @@
         <v>2017</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K4" s="6">
         <v>878</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>35</v>
@@ -925,21 +925,21 @@
         <v>36</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="5">
         <v>25569.2296875</v>
@@ -948,16 +948,16 @@
         <v>2017</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>63</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>64</v>
@@ -975,19 +975,19 @@
         <v>66</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>67</v>
@@ -1016,16 +1016,16 @@
         <v>70</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>63</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K6" s="6">
         <v>448</v>
@@ -1049,7 +1049,7 @@
         <v>34</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>36</v>
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
